--- a/03.crawler/03.eBay/file/1.item_number/crawler_2.xlsx
+++ b/03.crawler/03.eBay/file/1.item_number/crawler_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14040"/>
+    <workbookView windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,25 +44,25 @@
     <t>390952552830</t>
   </si>
   <si>
-    <t>371556118150</t>
+    <t>301791991081</t>
+  </si>
+  <si>
+    <t>373222887187</t>
   </si>
   <si>
     <t>301357432588</t>
   </si>
   <si>
+    <t>371434593545</t>
+  </si>
+  <si>
+    <t>301873142210</t>
+  </si>
+  <si>
     <t>391525907148</t>
   </si>
   <si>
-    <t>371165049724</t>
-  </si>
-  <si>
     <t>371570167825</t>
-  </si>
-  <si>
-    <t>301791991081</t>
-  </si>
-  <si>
-    <t>373222887187</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD4531"/>
+      <selection activeCell="A12" sqref="$A12:$XFD4555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>

--- a/03.crawler/03.eBay/file/1.item_number/crawler_2.xlsx
+++ b/03.crawler/03.eBay/file/1.item_number/crawler_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14600"/>
+    <workbookView windowWidth="20780" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,22 +38,13 @@
     <t>301284845158</t>
   </si>
   <si>
-    <t>391525907146</t>
-  </si>
-  <si>
     <t>390952552830</t>
   </si>
   <si>
-    <t>301791991081</t>
+    <t>302355976898</t>
   </si>
   <si>
     <t>373222887187</t>
-  </si>
-  <si>
-    <t>301357432588</t>
-  </si>
-  <si>
-    <t>371434593545</t>
   </si>
   <si>
     <t>301873142210</t>
@@ -62,7 +53,16 @@
     <t>391525907148</t>
   </si>
   <si>
-    <t>371570167825</t>
+    <t>391247775443</t>
+  </si>
+  <si>
+    <t>301357432588</t>
+  </si>
+  <si>
+    <t>391626437939</t>
+  </si>
+  <si>
+    <t>391077523166</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD4555"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
